--- a/biology/Médecine/Hôpital_d'instruction_des_armées_Robert-Picqué/Hôpital_d'instruction_des_armées_Robert-Picqué.xlsx
+++ b/biology/Médecine/Hôpital_d'instruction_des_armées_Robert-Picqué/Hôpital_d'instruction_des_armées_Robert-Picqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27instruction_des_arm%C3%A9es_Robert-Picqu%C3%A9</t>
+          <t>Hôpital_d'instruction_des_armées_Robert-Picqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital d’instruction des armées Robert Picqué (HIA Robert Picqué) est un hôpital militaire français situé à Villenave-d'Ornon, commune située près Bordeaux. Il est géré par le Service de santé des armées et accueille des patients tant militaires que civils[1].
+L’hôpital d’instruction des armées Robert Picqué (HIA Robert Picqué) est un hôpital militaire français situé à Villenave-d'Ornon, commune située près Bordeaux. Il est géré par le Service de santé des armées et accueille des patients tant militaires que civils.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27instruction_des_arm%C3%A9es_Robert-Picqu%C3%A9</t>
+          <t>Hôpital_d'instruction_des_armées_Robert-Picqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">l'hôpital est susceptible d'accueillir en permanence tout type de blessés (blessures viscérales, traumatismes des membres, de la face ou crâniens, brûlures…). 
 L’hôpital tire son nom de Robert Picqué, médecin militaire français.
